--- a/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:32:30+00:00</t>
+    <t>2025-02-05T13:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:40:24+00:00</t>
+    <t>2025-02-05T13:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:46:54+00:00</t>
+    <t>2025-02-05T14:43:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:43:21+00:00</t>
+    <t>2025-02-05T14:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:51:15+00:00</t>
+    <t>2025-02-05T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
+++ b/nr-update-profiles/ig/CodeSystem-fr-additional-when-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:57:31+00:00</t>
+    <t>2025-02-06T08:56:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
